--- a/public/data/yield_loss/yield_table_guinea.xlsx
+++ b/public/data/yield_loss/yield_table_guinea.xlsx
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>8742.78</v>
+        <v>8742.76</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2886.04</v>
+        <v>2883.69</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1500,19 +1500,19 @@
         <v>0.25</v>
       </c>
       <c r="L5" t="n">
-        <v>21716.75</v>
+        <v>21239.65</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>6035.01</v>
+        <v>6034.96</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2539.24</v>
+        <v>2539.21</v>
       </c>
       <c r="Q5" t="n">
         <v>75.38</v>
@@ -1524,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>493.83</v>
+        <v>493.82</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1740,22 +1740,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>10144.53</v>
+        <v>8799.96</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3188.81</v>
+        <v>3171.1</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1477.34</v>
+        <v>1473.07</v>
       </c>
       <c r="Q8" t="n">
-        <v>195.57</v>
+        <v>192.43</v>
       </c>
       <c r="R8" t="n">
         <v>74.38</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>253.62</v>
+        <v>252.87</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>274.01</v>
       </c>
       <c r="W8" t="n">
-        <v>956.58</v>
+        <v>956.21</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1820,7 +1820,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>727.2</v>
+        <v>719.06</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1900,22 +1900,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>23343.47</v>
+        <v>17120.35</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6128.69</v>
+        <v>6109.4</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2606.83</v>
+        <v>2602.04</v>
       </c>
       <c r="Q10" t="n">
-        <v>1822.77</v>
+        <v>1817.67</v>
       </c>
       <c r="R10" t="n">
         <v>299.44</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>491.88</v>
+        <v>490.81</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>758.05</v>
       </c>
       <c r="W10" t="n">
-        <v>2577.28</v>
+        <v>2577.04</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1980,22 +1980,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>23279.81</v>
+        <v>17413.02</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>10999.34</v>
+        <v>10974.2</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2076.52</v>
+        <v>2072.59</v>
       </c>
       <c r="Q11" t="n">
-        <v>2404.47</v>
+        <v>2364.91</v>
       </c>
       <c r="R11" t="n">
         <v>409.72</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>538.59</v>
+        <v>537.5</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>1369.55</v>
+        <v>1354.18</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2140,22 +2140,22 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>7467.83</v>
+        <v>5656.64</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3929.36</v>
+        <v>3846.04</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>770.73</v>
+        <v>755.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2128.76</v>
+        <v>2070.61</v>
       </c>
       <c r="R13" t="n">
         <v>174.7</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>209.17</v>
+        <v>205</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1469.09</v>
+        <v>1248</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3749.94</v>
+        <v>3749.89</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>5667.93</v>
+        <v>5650.96</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>12234.38</v>
+        <v>12196.45</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2700,22 +2700,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>45786.49</v>
+        <v>41930.45</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>9296.59</v>
+        <v>9263.21</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>6797.61</v>
+        <v>6780.26</v>
       </c>
       <c r="Q20" t="n">
-        <v>854.89</v>
+        <v>849.01</v>
       </c>
       <c r="R20" t="n">
         <v>294.55</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1198.84</v>
+        <v>1195.94</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>642.22</v>
       </c>
       <c r="W20" t="n">
-        <v>3754.28</v>
+        <v>3754.21</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2780,19 +2780,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>43920.19</v>
+        <v>41329.65</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>10556.58</v>
+        <v>10500.45</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>6484.57</v>
+        <v>6466.9</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1149.11</v>
+        <v>1146.11</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1774.35</v>
+        <v>2113.52</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>3899.61</v>
+        <v>3856.76</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>466.01</v>
+        <v>460.96</v>
       </c>
       <c r="Q22" t="n">
-        <v>103.12</v>
+        <v>101.57</v>
       </c>
       <c r="R22" t="n">
         <v>12.19</v>
@@ -2884,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>95.37</v>
+        <v>94.32</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2940,22 +2940,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>7176.63</v>
+        <v>6443.73</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>13483.87</v>
+        <v>13294.88</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>1398.16</v>
+        <v>1379.71</v>
       </c>
       <c r="Q23" t="n">
-        <v>733.96</v>
+        <v>729.62</v>
       </c>
       <c r="R23" t="n">
         <v>53.54</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>272.26</v>
+        <v>268.51</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -3020,22 +3020,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>18074.33</v>
+        <v>15221.9</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>21688.3</v>
+        <v>21446.64</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2876.69</v>
+        <v>2849.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>363.37</v>
+        <v>362.4</v>
       </c>
       <c r="R24" t="n">
         <v>171.39</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>549.2</v>
+        <v>543.76</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>561.09</v>
       </c>
       <c r="W24" t="n">
-        <v>2025.45</v>
+        <v>2023.58</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>6685.91</v>
+        <v>6566.06</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3180,19 +3180,19 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>331.53</v>
+        <v>344.06</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>641.11</v>
+        <v>639.99</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>70.36</v>
+        <v>70.23</v>
       </c>
       <c r="Q26" t="n">
         <v>1.85</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>14.07</v>
+        <v>14.04</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -3254,52 +3254,52 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>216.16</v>
+        <v>212.95</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>15827.69</v>
+        <v>16153.86</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>25629.88</v>
+        <v>24592.24</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>4311.21</v>
+        <v>4137.89</v>
       </c>
       <c r="Q27" t="n">
-        <v>2099.83</v>
+        <v>2024.1</v>
       </c>
       <c r="R27" t="n">
-        <v>295.05</v>
+        <v>289.73</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>765.08</v>
+        <v>734.38</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>1244.59</v>
+        <v>1227.33</v>
       </c>
       <c r="W27" t="n">
-        <v>2955.77</v>
+        <v>2928.88</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>5.68</v>
+        <v>5.59</v>
       </c>
       <c r="Z27" t="n">
         <v>0</v>
@@ -3334,52 +3334,52 @@
         <v>0.79</v>
       </c>
       <c r="J28" t="n">
-        <v>401.35</v>
+        <v>399.69</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>46984.95</v>
+        <v>38669.42</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>46605.35</v>
+        <v>45139.24</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>8617.22</v>
+        <v>8362.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>3385.38</v>
+        <v>3260.73</v>
       </c>
       <c r="R28" t="n">
-        <v>560.43</v>
+        <v>557.81</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1514.03</v>
+        <v>1469.77</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>2000.75</v>
+        <v>1993.12</v>
       </c>
       <c r="W28" t="n">
-        <v>5624.67</v>
+        <v>5606.47</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>14.03</v>
+        <v>13.99</v>
       </c>
       <c r="Z28" t="n">
         <v>0</v>
@@ -3414,46 +3414,46 @@
         <v>0.42</v>
       </c>
       <c r="J29" t="n">
-        <v>270.02</v>
+        <v>269.91</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>30895.77</v>
+        <v>28681.18</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>36528.28</v>
+        <v>35602.07</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>6242.03</v>
+        <v>6113.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>890.29</v>
+        <v>886.22</v>
       </c>
       <c r="R29" t="n">
-        <v>330.69</v>
+        <v>330.56</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1116.83</v>
+        <v>1093.55</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1328.08</v>
+        <v>1327.98</v>
       </c>
       <c r="W29" t="n">
-        <v>4359.86</v>
+        <v>4291.96</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>290.12</v>
+        <v>289.31</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3580,22 +3580,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>7351.8</v>
+        <v>6829.47</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5606.7</v>
+        <v>5604.57</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1111.36</v>
+        <v>1110.67</v>
       </c>
       <c r="Q31" t="n">
-        <v>44.15</v>
+        <v>44.11</v>
       </c>
       <c r="R31" t="n">
         <v>144.42</v>
@@ -3604,10 +3604,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>462.8</v>
+        <v>462.63</v>
       </c>
       <c r="U31" t="n">
-        <v>17.77</v>
+        <v>17.76</v>
       </c>
       <c r="V31" t="n">
         <v>243.8</v>
@@ -3660,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>3147.24</v>
+        <v>3116.67</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>146.22</v>
       </c>
       <c r="U32" t="n">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="V32" t="n">
         <v>36.7</v>
@@ -3740,22 +3740,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>6134.56</v>
+        <v>5321.86</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>5878.68</v>
+        <v>5860.24</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1389.96</v>
+        <v>1386.15</v>
       </c>
       <c r="Q33" t="n">
-        <v>2021.2</v>
+        <v>1981.14</v>
       </c>
       <c r="R33" t="n">
         <v>138.35</v>
@@ -3764,10 +3764,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>408.89</v>
+        <v>407.59</v>
       </c>
       <c r="U33" t="n">
-        <v>29.95</v>
+        <v>29.77</v>
       </c>
       <c r="V33" t="n">
         <v>367.55</v>
@@ -3820,7 +3820,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>2676.45</v>
+        <v>2674.73</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
